--- a/public/eat.xlsx
+++ b/public/eat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,374 +436,552 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>潮汕九种经典小吃🔥</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>说到潮汕，大家一定会提到的九种经典小吃。潮汕 #潮汕人#潮汕美食#美食教程#摆摊小吃#美食教程</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1040g2sg312oc4t2sisbg5n9b9cc494eotq62nqo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>潮汕不可错过的美食攻略来啦！</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>✨汕头 1⃣️杏花吴记牛肉 人均100左右吃到爽的牛肉火锅！ 食材都超级新鲜～ 2⃣️非遗·苏南勤记卤鹅 这家的鹅肝真的很好吃！ 其他的鹅货都很嫩！ 3⃣️瑞娇嬷嬷潮汕生腌 血蛤、海虾、膏蟹这三样都很好吃 味道腌得刚刚好，一口就爱上了 4⃣️树下鸡翅 这家的腐乳鸡翅真的必吃！炸得很酥脆！ 5⃣️老资娘粿汁店 很普通的卤味，果然感觉一般般，但是很火 6⃣️正井上茶 在潮汕地标的附近，拍照打卡很出片 7⃣️一杯潮茶 带有小茶壶的装饰也很出片 ✨潮州 1⃣️十八曲鱼饺 这个真的很推荐，都是鱼做的！ 鱼面很好吃～鱼丸、虾饼都很不错 2⃣️双生肠粉 生蚝肠粉和牛肉肠粉分量都很足！ 3⃣️阿荣砂锅粥 砂锅粥里面放了虾蟹很鲜甜 这家的生蚝烙很好吃 虾菇就踩雷了有股药味 4⃣️林记老牌小吃店 这家的芋泥麦粿真的超级绝！在西马路 5⃣️糖葱薄饼 潮汕的特色小吃，个人觉得太甜了 6⃣️利和治茶 潮汕的特色奶茶也很好喝！ 7⃣️佬牌坊·潮汕生腌 这家生腌很新鲜，就是太咸了 他家的小青龙很正！ 	 #潮汕美食#潮汕#潮汕牛肉火锅#旅游#春节去哪儿#潮汕生腌#潮汕牛肉火锅#潮汕小吃#汕头#潮州#我的春节这样过#春节去哪儿@城市情报官@吃货薯@生活薯</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1040g2sg30um0i9m6lg5049kp1i1r3b8kr8sj3s8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>潮汕有啥好吃的？🍜</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>1 蚝烙（Oyster Roast） ​ 2 红桃粿（Peach-shaped Kueh） 3 潮汕肠粉（Rice Noodle Roll） 4 鸭母捻（Ah Balling） ​ 5 粿汁（Kway Chap） 6 揭西擂茶（Grinding Tea） ​ 7 隆江猪脚饭(LongJiang Pig Feet Rice) ​ 8 炸豆干(Fired Dried Tofu) ​ 9 揭阳乒乓粿(Pingpong Fruit) ​ 10 菊花糕(Chrysanthemum Cake) ​ 11 汕头牛肉火锅（Chaoshan beef hotpot） 12 砂锅粥(Casserole Porridge) ​ 13 汕头卤鹅（Halogen Geese） ​ 14 鲎粿(Horseshoe crab cake) 15 澄海猪头粽(Pig Dumplings) #吃了甜食会开心#美食图鉴#艺术薯#美食插画#潮汕#潮汕肠粉#潮汕蚝烙#美食日常#艺术画#我的美食日记</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1040g2sg310adi2d4mi0g5p1c85c4c9vh134lifg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>潮汕美食攻略·存档</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>为了在潮汕吃的开心 行程安排前还是很仔细得做了攻略 结果还是踩了不少雷 mark一下吧～ #潮汕美食攻略</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1040g2sg311ualqcchm304a7evkc95l6qjvn2edo!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>深圳周边游美食打卡之——汕头好吃和踩雷的店</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>马上国庆了，二刷汕头的我先大家一步去汕头探探哪些店好吃哪些店踩雷🤌🏻这份攻略收好！ • 首先推荐大家住📍万象城附近，去哪里都很近 如果你时间比较赶，下高铁直奔龙眼南路🛣️一整条路都是好吃的～ • ✅适口餐厅砂锅粥 粥很鲜甜，虾新鲜Q弹🦐一定要记得点虾枣！炸得酥脆要趁热吃！吃后念念不忘好多天 - ✅乔兴牛肉 不愧是9⃣️年老字号！最喜欢牛肉牛腩双拼饭✨加酸菜是点睛之笔，加一丢丢辣椒酱跟酸菜和牛肉牛腩拌匀一起吃，一口下去好吃到升天 - ✅家常牛肉（第一次去的忘了拍照） 味道挺不错，牛肉嫩滑入味，土豆细腻软烂。但如果大热天排长队真的没必要特地打卡‼️ - ✅东市白粥 生腌嫩虾真的好滑嫩，炒茄子和番薯叶配粥真的很不错，白灼鱿鱼还行，鱼皮感觉一般🚫 - ✅ 玉粧杨记牛肉 湿炒牛河超好吃，肉肉也都很新鲜，牛筋丸会爆汁，带一点蒜头油香 - ✅长平肠粉（梅园店） 皮薄馅多，猪肉海鲜蛋肠特别香的一股蛋味，牛肉肠也好吃😋 - ✅普宁反沙番薯芋头 甜丝丝的又香酥脆，紫薯地瓜芋头我都喜欢，咸蛋黄咸咸甜甜的也好好吃！ - ✅老牌传统粿汁 黏糊糊的是我喜欢的口感，卤水都炖得软烂入味，3个菜💰15好吃不贵👍🏻 - ✅成川治茶 味道很像茶颜悦色，但茶味比较重，我一天喝两杯 - 🟡杏花吴记（第一次去汕头吃的的忘了拍照） 五花趾是我吃过最好吃的，很弹牙！！但是嫩肉真的不太行，人多就没必要非吃这家‼️ - ❌一杯潮茶（第一次去汕头喝的的忘了拍照） 深圳也有，个人感觉一般 - ❌阿象肠粉 皮太薄，加了红薯粉的皮不太是我的菜，里面的肉肉和海鲜也不太有记忆点 - ❌三姐妹肠粉（第一次去汕头吃的忘了拍照） 感觉味道也一般，酱汁也不是我喜欢的，皮也不是我喜欢的口感 • #寻找风味小城#深圳周边游#汕头美食#汕头旅游#潮汕美食#汕头地道美食#汕头攻略#汕头旅游攻略#汕头吃喝玩乐#美食日常#攻略#吃喝玩乐#旅游</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1040g00830p6ok15ok06049nh2rrmcl333p0nloo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>2天16顿｜谁懂汕头美食的含金量🤩‼️‼️</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>汕头好吃的小店真的泰多啦！ 整理了相册里吃过的一些隐蔽小店 这些都是本人觉得好吃的！ 2天16顿 真没跟你开玩笑 来了汕头不吃 你会后悔的！！！ #汕头攻略#汕头#汕头美食#汕头旅游#汕头吃喝玩乐</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1040g00830spj6r6hk4604bm28otuh0hp39a0ftg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>汕头一定要去的生腌‼️不愧是潮汕毒药好好吃</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>汕头吃生腌不要再去网红店大排长龙了！！！ 安利这家汕头本地朋友带我来吃的正宗潮汕生腌 附近的居民朋友们也经常来这吃 真的巨好吃！一点腥味都没有 🈶花龙、膏蟹、血蛤、皮皮虾、三文鱼、青口各种海鲜，品种也蛮多的 	 #生腌#汕头美食#汕头探店#汕头旅行#汕头旅游#汕头吃喝玩乐#潮汕生腌#汕头生腌#汕头龙眼路#汕头龙眼美食#我的宝藏美食集#汕头龙眼路美食</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1040g2sg310c3qijd6e50423doei5crgvn4rs5go!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>潮汕海鲜砂锅粥|海味鲜韵的极致熬煮🌊🥣</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>✨潮汕美食的宝藏清单里，潮汕海鲜砂锅粥必须拥有姓名！今天就来给各位美食爱好者们好好安利一番~ 🥘【食材鲜萃，海之盛宴】 这粥堪称是海洋鲜味的大集合！肥美的鲜虾🦐总是率先跳入脑海，每一只都肉质 Q 弹，鲜甜在舌尖上跳舞。螃蟹🦀更是不甘示弱，蟹肉的丰腴与蟹黄的醇厚交织，带来奢华的味觉冲击。还有那鲜嫩的鱿鱼、肥嘟嘟的蛤蜊等一众海鲜小伙伴，它们在砂锅中与米粒相互依偎，释放出浓郁纯粹的海味，每一勺都是满满的大海馈赠。 🔥【慢火精炖，粥道匠心】 制作潮汕海鲜砂锅粥，时间与火候是关键的魔法咒语。经验老到的大厨们会耐心地用小火慢慢熬煮，让每一粒米都充分吸收海鲜的精华，逐渐变得软糯绵密，却又不失嚼劲。在这个过程中，海鲜的鲜香也深深渗透进粥里，二者浑然一体，成就那无比鲜美的口感。砂锅里咕嘟咕嘟的声音，仿佛是美食在低声吟唱，诉说着它即将登场的惊艳。 🌿【调味点睛，香韵悠长】 只需少许的盐和胡椒粉，便能巧妙地勾勒出整道粥的鲜美轮廓。这极简的调味，让海鲜本身的鲜甜毫无保留地绽放，没有丝毫的掩盖与矫饰。再撒上一把翠绿的葱花和香菜，清新的气息瞬间为这碗粥增添了一抹亮色，不仅是视觉上的点缀，更是在味觉上带来了丰富的层次与和谐的平衡。 🌟【暖心暖胃，潮汕至味】 在潮风轻拂的夜晚，或是微寒的清晨，来上这样一碗热气腾腾的潮汕海鲜砂锅粥，那股暖意从舌尖直抵心底，瞬间驱散所有的疲惫与寒意。它不仅仅是一道美食，更是潮汕人对生活的热爱与温情的传递。无论是与家人围坐共享，还是独自一人慢慢品味，都能在这碗粥中找到那份专属的满足与慰藉。 💖如果你还未曾领略过潮汕海鲜砂锅粥的魅力，那可一定要抓紧机会啦！相信一旦尝试，你定会被它深深俘获，沉浸在这来自潮汕海边的独特鲜韵之中，无法自拔。 (图源均来自网络，版权归原作者所有，如若无意侵权，请戳删除谢谢） #潮汕美食#海鲜砂锅粥#美食推荐#潮汕特色#潮汕文化</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1040g00831aj6p5vamq205phu5hogu4jo7h7cmq0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>来潮州就为了这一口官塘兄弟牛肉火锅🍲…</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>如果要吃正宗的潮汕牛肉火锅⁉️一定要来吃这家官塘兄弟牛肉火锅🍲 	 这家的牛肉都是明档鲜切，每一种牛肉都非常鲜嫩，涮上几秒口感更佳，口感非常浓郁丰富🤩 	 🍲潮汕牛骨清汤 大牛骨🦴，骨头熬制而成，汤🥣底清澈透亮，醇厚鲜美，加上芹菜粒，味道非常甜美！ 	 🥩纯手工牛肉丸 牛肉丸纯手工打制而成，Q弹有劲，咬一口就能感受到肉质的紧实和弹牙！ 	 🥩五花趾 QQ弹弹的，很有嚼劲！喜欢吃🈶嚼劲一点必点，不会让你失望！咬上一口满满的弹牙感！ 	 🥩嫩肉 口感极其嫩滑，在锅里涮几下就能品尝到鲜美。 	 📍官塘兄弟牛肉火锅（蔡陇店）🥘 🗺️：潮州市绿榕路与南堤路交叉40米 	 #潮州#潮州美食#潮州美食探店#潮州探店#潮州牛肉火锅#潮州美食攻略#潮汕牛肉火锅#城市吃喝指南 #本地特色美食攻略 #官塘兄弟牛肉火锅</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1040g0083179i5kbfk4405o74cflg81hf5ugltl0!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>潮州食游记｜本地朋友带路的超绝砂锅粥❗️❗️</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>潮州第二顿吃到一家超级棒的潮州砂锅粥店 这家店是本地朋友强烈推荐的，值得一试！ 	 🚗 位置超级好找，就在一个大型停车场旁边，在店用餐可以免费停车40分钟，超级方便！ 而且装修非常有特色，走进去就感觉到了浓浓的潮州风情～ 	 菜品很平价，用团购hin 划算🥹 特别推介 👍熟腌鱼片，麻油口很清爽 鱼片是脆口的!!类似脆皖鱼 配菜黄瓜片也脆脆的，很入味 	 👍招牌膏蟹鲜虾粥，食材超级新鲜 粥底熬得非常细腻，每一粒米都吸满了汤汁 有完整的一只大螃蟹，肉膏都很鲜香 大虾开背去了虾线，还没有放姜片（不吃姜人福音） 吃起来就是一个放心大口炫！ #潮汕美食  #潮州探店#潮州美食攻略 #潮州打卡 #潮州吃喝玩乐#潮州攻略#潮州本地人推荐 #潮州必吃榜 #潮州牌坊街#潮州旅行#深圳周边游@城市情报官@吃货薯</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1040g2sg319h80dq1n2h05oij0ttoctrpbr1dkr8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>潮汕人推荐🔥四天三夜吃喝攻略!（附路线图）</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>来潮汕旅游除了看美景，zuizuizui重要的当然是吃潮汕特色美食啦！ 来潮汕旅游吃什么喝什么看这一篇就够了！ - 作为潮汕土著这些都是个人感觉比较有特色而且味道好的～ 大部分在老城区，离景点也都不远很方便～ 如果有游客or本地朋友觉得有其他好吃的，欢迎补充！ - 汕头（主要在汕头小公园、龙眼南路） ✅主食篇： 1⃣杏花吴记牛肉：人均100吃到爽！ 2⃣三姐妹肠粉：开了很久的汕头肠粉 3⃣非遗·苏南勤记卤鹅：鹅肝很好吃！！ 4⃣蔡记大排档：汕头本地爱吃的小炒店 5⃣瑞娇嬷嬷生腌：血蛤、海虾、膏蟹入味 ✅小吃篇： 1⃣龙眼豆花（潮式豆花甜品店） 2⃣树了下鸡翅（这家的腐乳鸡翅必吃！） 3⃣老潮兴·做粿人家（可以快递各种粿类） ✅饮品篇： 1⃣12中草莓冰（读书喝到现在！juju好喝） - 潮州（主要在牌坊街、西马路） ✅主食篇： 1⃣十八曲鱼饺：鱼面、鱼丸、虾饼都很不错 2⃣️官塘兄弟牛肉火锅：套餐量还挺足，性价比高 3⃣️双生肠粉：生蚝肠粉和牛肉肠粉分量足！ ✅小吃篇： 1⃣️蔡伯糯米猪肠 （13/人，糯米QQ的，猪肠处理很干净） 2⃣️利和治茶（门口很好拍照，出品好看） 3⃣️顺伯反沙屋（点的全家福反沙番薯➕反沙芋头➕反沙蛋黄➕反沙油甘，没有踩雷） 4⃣️林记老牌小吃店：芋泥麦粿的芋泥很多 - 🚗潮汕四天三晚路线推荐 Day1⃣️ 中午汕头站接车--汕头小公园-汕头旅社-西提公园-广场轮渡-龙眼南路美食-酒店 Day2⃣️ 南澳大桥-长山尾灯塔-天域山庄-钱澳湾灯塔-前江湾网红墙-三囱崖灯塔-青澳湾-自然之门-风车山-潮州酒店 Day3⃣️ 青龙古庙-泰佛殿--广济桥-牌坊街-开元寺-广济楼灯光秀-潮州酒店 Day4⃣️ 镇海楼-儒学宫-许驸马府-龙湖古寨-回家 #潮汕旅游#潮汕旅游攻略#潮汕美食#本地人爱吃的店#走街串巷找美食#潮州citywalk#潮汕#潮汕定制游#汕头美食#南澳岛#潮州旅行#每天都有值得记录的瞬间#小众旅游#潮汕牛肉火锅#周末去哪儿#国内旅游日常</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1040g00831a8rlc8nne605pjkv01guc2la05lu5o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>没吃过「粿」，不配谈潮汕美食！潮汕美食集合！</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>深圳，也是一座被潮汕人包围的城市，不管到哪儿都是胶己人， 无论在哪个角落，总是会有潮汕美食的身影，这里是潮汕人的“第二故乡”。 出门在外，不仅让胶己人能吃到带有家乡味道的美食， 也让潮汕美食被越来越多的人熟知。 💥💥💥 有潮汕美食的地方，就一定有“粿”。 油粿甜粿石榴粿，面粿酵粿油炸粿 鲎粿软粿牛肉粿，菜头圆卡壳桃粿 	 潮汕人的粿可太多了 数不完，根本数不完！🥹🥹🥹🥹 	 在潮汕，凡是用米粉、面粉、薯粉等加工制成的副食品都称为“粿”。🍩🍩 潮汕地区的粿，不仅是祭拜神明的贡品， 也是日常生活中随处可见的色、香、味俱全的小食，🎟️🎟️ 例如红桃粿、鲎粿、无米粿、水晶粿、栀粿等等。🌸🌸 其种类繁多，可以从外形、材料、是否含糖等分成很多种类。 “时节做时粿，逢节必有粿”，潮汕地区的每一种「粿」都与众不同！🙊🙊🙊 “潮汕的粿，你都还知道哪些？” 	 #深圳潮汕#深圳粿条#潮汕粿#潮汕美食#深圳美食#深圳胶己#深圳潮汕人#小吃#糯叽叽@城市情报官</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1040g00830rvl0v9l2gi05n42i6blguubusl9s5o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>刚从汕头回来 来抄作业！（生腌篇）</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>去汕头自驾游比较方便 掌握时间比较自由 还有就是带上你1t的胃 因为生腌太好吃了 去玩两天已经n刷345次了 本地人都推荐！ ✔️可堂食✔️可邮寄！敲方便！ 品种丰富 想到的都有啦！ 🌟生蚝 基围虾 花蟹 花螺 象拔蚌 小青龙等.. 下口就知道非常新鲜 来汕头必点！ 份量足 酱料腌制入味 处理非常干净嘎嘎香！ 生腌熟腌都有 怎么点都不会踩雷 #南时游潮汕生腌#捞汁小海鲜#汕头美食#汕头必吃榜#汕头旅游#汕头南澳岛#平价美食#美食推荐#走街串巷找美食#美食日常</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1040g008316qslhfmjm0g5n53um1k3ug9rajqu9o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>出东莞去深圳觅食啦！！一家被找疯了的店</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>- 躺在收藏夹好多年的小店 深圳20多年老店？ 馋了他家的粿条卷和白切系列好久了 终于吃上了！！ 白切三拼💰55（鸭肉+鸭肠+粉肠） 粿条卷💰9 鸭杂汤💰17 - 📍林记揭阳新亨粿条（深圳福田） 深圳地铁🚇7号线沙尾地铁站C口步行280m - #被低估的宝藏小城#走街串巷找美食#我是美食活地图#深圳美食#深圳潮汕美食#潮汕美食#潮汕小吃#周末吃什么#深圳周末探店#深圳周末去哪儿#深圳粿条#深圳周末探店#深圳美食探店#一家被找疯了的店#福田美食</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1040g008315q2crjb1a5g4al05etekq0v01j9j0g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>在深圳就能吃到的平价✨潮汕美食‼️</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>你们再也不用人挤人专门🚄跑去潮汕吃美食啦！！ 就在深圳北附近📍新开了一家潮式早茶！🈶各种潮汕小吃，而且不贵！！亲测味道地道，份量还很足！ 唯一的缺点就是来吃人好多哇😮！！建议错开饭点早点去～ 	 推荐必点‼️ 🌟腐乳鸡翅 炸得外脆里嫩，腐乳味很浓！👍🏻一点要点，真的不输在汕头小公园吃的！！ 🌟油柑茶/柠檬茶冰饮 都好好喝，尤其推荐油柑口味，甘甜可口，回甘很好～ 🌟什锦牛奶冰/四果汤…等系列甜汤 一定要试！！口感很丰富，而且甜度刚刚好，奶味也很浓～料很足，推荐👍🏻 🌟各种蒸笼小吃都好吃！ Q弹的金钱肚，底下的白萝卜也好好吃～ 凤爪软糯入味很好嗦😋，虾饺、虾肉烧卖真的惊呆了里面的真的虾肉很大！！ 🌟肠粉 肠粉有好多种口味的！很大一条，要两个人吃才吃得完而且里面的料很多，我们翻到了好几颗大虾🍤 🌟反砂芋头/番薯 这个配茶真的绝了，就是人多很难点到，卖光了 …… 还有好多好多种小吃！都是潮汕风味的！下次还要去吃💯果真人多的地方，味道都不会太差🤣 	 #潮汕菜#平价美食#走街串巷找美食#深圳潮汕美食#深圳潮汕小吃#廖发发#潮汕小吃#潮汕美食#深圳早茶#深圳早茶推荐</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1040g00831849jdc4gq504a7ddcgknn8h6j42ha0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>潮汕特产手信攻略</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>出来旅游一趟 总要带点当地特产回家吧 除了买牛肉丸，不知道还能买什么的 看过来啦！！！ 1️⃣绿豆饼（外皮薄且酥脆，甜度刚好，又香又糯。一块饼，一杯茶，潮汕下午茶的标配。） 2️⃣ 潮汕麻花（在潮汕地区成为“油索”,由面粉搓成条，油炸之后，翻沙裹上糖和葱。又香又脆,甜而不腻。） 3️⃣ 炒米程（咬一口香香甜甜，是客家传统小吃 也是在外游子思念的儿时味道。） 4️⃣ 南乳条（条型腐乳柳造型小巧，保留传统工艺㊙由花生，芝麻，南乳，猪白肉丁，蒜茸等特制而成♨有独特的南乳香味，鲜香酥甜，口感外酥内糯，配上一壶功夫茶🍵让人流连忘返。） 5️⃣ 反沙三味（反沙的紫薯、番薯、香芋 三种混合一起，外面在裹上一层糖霜，口味咸甜，很酥脆。） 6️⃣ 椒​盐‎🌀猫耳​酥（一​口咬‎下‎去​嘎‎嘣脆‎口​浓浓‎的椒盐香味.薄脆香​酥​.便宜又好吃的零​嘴。） 7️⃣ 甜橄榄原生态👍🏻 【特级酥脆老甜种】青皮橄榄，酥脆，无渣，回味甘甜，口感酥脆、毫无酸涩感、入口🈶️独特香气、细腻🈚️渣、巅峰味觉！。） 8️⃣ 朥饼（“胶己人“的潮汕月饼，喜庆的红色印戳，十分经典。饼皮酥脆金黄，更是有多种口味可以选择，乌豆沙蛋黄，绿豆沙蛋黄，芋泥蛋黄等多种口味。） 9️⃣ 蛋黄绿豆饼（有蛋黄的绿豆饼 绵密的绿豆沙包裹咸沙的鸭蛋黄 跟功夫茶可以组C P的#晒晒你的家乡特产#地方特产#平价美食#特产#潮汕特产手信</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1040g2sg317m3feqo0m8g4ad084or158fhqfq308!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>深圳！！潮汕前男友带我去吃过的赤尾六家店！！</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>#深圳美食#深圳探店#福田美食#潮汕美食#深圳潮汕美食#大声安利本地美食</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1040g008315oiafgnhe5g4a55gik1cbrsuos9og8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>潮汕特产手信攻略</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>出来旅游一趟 总要带点当地特产回家吧 除了买牛肉丸，不知道还能买什么的 看过来啦！！！ 1️⃣绿豆饼（外皮薄且酥脆，甜度刚好，又香又糯。一块饼，一杯茶，潮汕下午茶的标配。） 2️⃣ 潮汕麻花（在潮汕地区成为“油索”,由面粉搓成条，油炸之后，翻沙裹上糖和葱。又香又脆,甜而不腻。） 3️⃣ 炒米程（咬一口香香甜甜，是客家传统小吃 也是在外游子思念的儿时味道。） 4️⃣ 南乳条（条型腐乳柳造型小巧，保留传统工艺㊙由花生，芝麻，南乳，猪白肉丁，蒜茸等特制而成♨有独特的南乳香味，鲜香酥甜，口感外酥内糯，配上一壶功夫茶🍵让人流连忘返。） 5️⃣ 反沙三味（反沙的紫薯、番薯、香芋 三种混合一起，外面在裹上一层糖霜，口味咸甜，很酥脆。） 6️⃣ 椒​盐‎🌀猫耳​酥（一​口咬‎下‎去​嘎‎嘣脆‎口​浓浓‎的椒盐香味.薄脆香​酥​.便宜又好吃的零​嘴。） 7️⃣ 甜橄榄原生态👍🏻 【特级酥脆老甜种】青皮橄榄，酥脆，无渣，回味甘甜，口感酥脆、毫无酸涩感、入口🈶️独特香气、细腻🈚️渣、巅峰味觉！。） 8️⃣ 朥饼（“胶己人“的潮汕月饼，喜庆的红色印戳，十分经典。饼皮酥脆金黄，更是有多种口味可以选择，乌豆沙蛋黄，绿豆沙蛋黄，芋泥蛋黄等多种口味。） 9️⃣ 蛋黄绿豆饼（有蛋黄的绿豆饼 绵密的绿豆沙包裹咸沙的鸭蛋黄 跟功夫茶可以组C P的#晒晒你的家乡特产#地方特产#平价美食#特产#潮汕特产手信</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1040g2sg317m3feqo0m8g4ad084or158fhqfq308!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>深圳福田！十多种潮汕小吃！！2.5r起‼️</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>📍赤尾·肥姨美食粉粿 #深圳美食#走街串巷找美食#深圳小吃#深圳潮汕美食#深圳潮汕小吃#潮汕粿品#潮汕美食#潮汕下午茶#福田美食</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>1040g0083189rdq4e3q3g5p94oveqlco9koqmmg8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>去了潮汕5次，熬夜整理的潮汕旅游攻略</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>#汕头美食#汕头攻略#汕头旅游攻略#汕头旅游#汕头小公园#潮州美食#潮州旅游攻略#潮州旅游#潮州旅游攻略#潮汕美食#潮汕旅游攻略#潮汕旅游#潮汕周边游</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1040g0083144m5f0lho104a609gkfr6unr0a97c8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#美食</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>已经连续两个周六从香港来深圳吃这个了。。。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>#南山美食#深圳大排档#潮汕美食#鸡煲#深圳美食#石橄榄#火锅#深圳探店#海鲜大排档#潮汕小吃#小红书团购#香港来深必吃#平价美食@吃货薯@土拨薯@小红书创作助手</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1040g2sg313s27ksrie4g490pa3djr8fuddtkqug!nd_dft_wlteh_webp_3.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>#美食</t>
         </is>
       </c>
     </row>
